--- a/SchedulingData/static8/pso/scheduling1_14.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_14.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80.7</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.9</v>
+        <v>57.6</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80.7</v>
+        <v>57.6</v>
       </c>
       <c r="D4" t="n">
-        <v>142.24</v>
+        <v>129.9</v>
       </c>
       <c r="E4" t="n">
-        <v>22.556</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>75.95999999999999</v>
+        <v>151.14</v>
       </c>
       <c r="E5" t="n">
-        <v>26.064</v>
+        <v>22.156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>142.24</v>
+        <v>151.14</v>
       </c>
       <c r="D6" t="n">
-        <v>245.84</v>
+        <v>227.04</v>
       </c>
       <c r="E6" t="n">
-        <v>18.776</v>
+        <v>17.176</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.06</v>
+        <v>40.08</v>
       </c>
       <c r="E7" t="n">
-        <v>21.684</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141.06</v>
+        <v>40.08</v>
       </c>
       <c r="D8" t="n">
-        <v>207.8</v>
+        <v>81.12</v>
       </c>
       <c r="E8" t="n">
-        <v>16.64</v>
+        <v>24.728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>129.9</v>
       </c>
       <c r="D9" t="n">
-        <v>41.92</v>
+        <v>190</v>
       </c>
       <c r="E9" t="n">
-        <v>27.008</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>258.8</v>
       </c>
       <c r="E10" t="n">
-        <v>26.48</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="11">
@@ -637,150 +637,150 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>42.88</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>26.412</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41.92</v>
+        <v>81.12</v>
       </c>
       <c r="D12" t="n">
-        <v>117.42</v>
+        <v>167.52</v>
       </c>
       <c r="E12" t="n">
-        <v>23.528</v>
+        <v>19.208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>167.52</v>
       </c>
       <c r="D13" t="n">
-        <v>124.3</v>
+        <v>230.92</v>
       </c>
       <c r="E13" t="n">
-        <v>20.88</v>
+        <v>15.008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42.88</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>114.66</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>22.324</v>
+        <v>24.956</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>117.42</v>
+        <v>227.04</v>
       </c>
       <c r="D15" t="n">
-        <v>186.68</v>
+        <v>287.46</v>
       </c>
       <c r="E15" t="n">
-        <v>19.732</v>
+        <v>13.744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>186.68</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>251</v>
+        <v>165.9</v>
       </c>
       <c r="E16" t="n">
-        <v>16.42</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>124.3</v>
+        <v>258.8</v>
       </c>
       <c r="D17" t="n">
-        <v>169.72</v>
+        <v>305.7</v>
       </c>
       <c r="E17" t="n">
-        <v>17.968</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>245.84</v>
+        <v>287.46</v>
       </c>
       <c r="D18" t="n">
-        <v>291.68</v>
+        <v>356.32</v>
       </c>
       <c r="E18" t="n">
-        <v>15.812</v>
+        <v>9.948</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>207.8</v>
+        <v>230.92</v>
       </c>
       <c r="D19" t="n">
-        <v>270.48</v>
+        <v>311.28</v>
       </c>
       <c r="E19" t="n">
-        <v>11.992</v>
+        <v>11.092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>169.72</v>
+        <v>165.9</v>
       </c>
       <c r="D20" t="n">
-        <v>216.62</v>
+        <v>232.38</v>
       </c>
       <c r="E20" t="n">
-        <v>15.408</v>
+        <v>18.092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>53.9</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>136.5</v>
+        <v>87.3</v>
       </c>
       <c r="E21" t="n">
-        <v>22.16</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="22">
@@ -846,131 +846,131 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>136.5</v>
+        <v>305.7</v>
       </c>
       <c r="D22" t="n">
-        <v>200.7</v>
+        <v>367.8</v>
       </c>
       <c r="E22" t="n">
-        <v>18.36</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>291.68</v>
+        <v>356.32</v>
       </c>
       <c r="D23" t="n">
-        <v>340.08</v>
+        <v>427.46</v>
       </c>
       <c r="E23" t="n">
-        <v>11.612</v>
+        <v>5.944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>200.7</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>265.64</v>
+        <v>142.22</v>
       </c>
       <c r="E24" t="n">
-        <v>15.456</v>
+        <v>20.588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>340.08</v>
+        <v>87.3</v>
       </c>
       <c r="D25" t="n">
-        <v>390.6</v>
+        <v>166.18</v>
       </c>
       <c r="E25" t="n">
-        <v>8.18</v>
+        <v>22.592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>390.6</v>
+        <v>427.46</v>
       </c>
       <c r="D26" t="n">
-        <v>424.04</v>
+        <v>482.86</v>
       </c>
       <c r="E26" t="n">
-        <v>5.476</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>216.62</v>
+        <v>142.22</v>
       </c>
       <c r="D27" t="n">
-        <v>283.22</v>
+        <v>204.04</v>
       </c>
       <c r="E27" t="n">
-        <v>11.848</v>
+        <v>17.036</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>283.22</v>
+        <v>204.04</v>
       </c>
       <c r="D28" t="n">
-        <v>333.98</v>
+        <v>260.74</v>
       </c>
       <c r="E28" t="n">
-        <v>7.912</v>
+        <v>14.476</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>265.64</v>
+        <v>367.8</v>
       </c>
       <c r="D29" t="n">
-        <v>312.94</v>
+        <v>423.36</v>
       </c>
       <c r="E29" t="n">
-        <v>11.856</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>251</v>
+        <v>423.36</v>
       </c>
       <c r="D30" t="n">
-        <v>296.56</v>
+        <v>506.87</v>
       </c>
       <c r="E30" t="n">
-        <v>12.504</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>424.04</v>
+        <v>482.86</v>
       </c>
       <c r="D31" t="n">
-        <v>488.22</v>
+        <v>555.71</v>
       </c>
       <c r="E31" t="n">
-        <v>2.668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,55 +1036,55 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>333.98</v>
+        <v>555.71</v>
       </c>
       <c r="D32" t="n">
-        <v>380.8</v>
+        <v>594.8099999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>4.36</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>114.66</v>
+        <v>260.74</v>
       </c>
       <c r="D33" t="n">
-        <v>189.26</v>
+        <v>340.94</v>
       </c>
       <c r="E33" t="n">
-        <v>19.484</v>
+        <v>10.056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>488.22</v>
+        <v>594.8099999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>584.1799999999999</v>
+        <v>669.75</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>24.376</v>
       </c>
     </row>
     <row r="35">
@@ -1093,74 +1093,74 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>584.1799999999999</v>
+        <v>340.94</v>
       </c>
       <c r="D35" t="n">
-        <v>652.42</v>
+        <v>400.98</v>
       </c>
       <c r="E35" t="n">
-        <v>25.856</v>
+        <v>6.192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>312.94</v>
+        <v>166.18</v>
       </c>
       <c r="D36" t="n">
-        <v>359.82</v>
+        <v>214.32</v>
       </c>
       <c r="E36" t="n">
-        <v>7.808</v>
+        <v>19.888</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>270.48</v>
+        <v>214.32</v>
       </c>
       <c r="D37" t="n">
-        <v>319.16</v>
+        <v>279.84</v>
       </c>
       <c r="E37" t="n">
-        <v>8.744</v>
+        <v>15.936</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>189.26</v>
+        <v>400.98</v>
       </c>
       <c r="D38" t="n">
-        <v>248.56</v>
+        <v>454.76</v>
       </c>
       <c r="E38" t="n">
-        <v>16.184</v>
+        <v>2.944</v>
       </c>
     </row>
     <row r="39">
@@ -1169,112 +1169,112 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>652.42</v>
+        <v>454.76</v>
       </c>
       <c r="D39" t="n">
-        <v>726.08</v>
+        <v>545.27</v>
       </c>
       <c r="E39" t="n">
-        <v>22.58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>319.16</v>
+        <v>545.27</v>
       </c>
       <c r="D40" t="n">
-        <v>383.04</v>
+        <v>632.37</v>
       </c>
       <c r="E40" t="n">
-        <v>5.936</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>380.8</v>
+        <v>279.84</v>
       </c>
       <c r="D41" t="n">
-        <v>444.98</v>
+        <v>358.58</v>
       </c>
       <c r="E41" t="n">
-        <v>0.552</v>
+        <v>12.152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>444.98</v>
+        <v>232.38</v>
       </c>
       <c r="D42" t="n">
-        <v>525.78</v>
+        <v>288.78</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>14.072</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>359.82</v>
+        <v>358.58</v>
       </c>
       <c r="D43" t="n">
-        <v>441.52</v>
+        <v>403</v>
       </c>
       <c r="E43" t="n">
-        <v>3.728</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>383.04</v>
+        <v>288.78</v>
       </c>
       <c r="D44" t="n">
-        <v>440.86</v>
+        <v>339.3</v>
       </c>
       <c r="E44" t="n">
-        <v>2.284</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="45">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>440.86</v>
+        <v>311.28</v>
       </c>
       <c r="D45" t="n">
-        <v>513.1900000000001</v>
+        <v>363.46</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>7.004</v>
       </c>
     </row>
     <row r="46">
@@ -1302,245 +1302,245 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>513.1900000000001</v>
+        <v>363.46</v>
       </c>
       <c r="D46" t="n">
-        <v>559.41</v>
+        <v>431.7</v>
       </c>
       <c r="E46" t="n">
-        <v>26.568</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>296.56</v>
+        <v>506.87</v>
       </c>
       <c r="D47" t="n">
-        <v>351.54</v>
+        <v>575.11</v>
       </c>
       <c r="E47" t="n">
-        <v>8.135999999999999</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>525.78</v>
+        <v>575.11</v>
       </c>
       <c r="D48" t="n">
-        <v>612.88</v>
+        <v>648.77</v>
       </c>
       <c r="E48" t="n">
-        <v>25.92</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>248.56</v>
+        <v>431.7</v>
       </c>
       <c r="D49" t="n">
-        <v>309.7</v>
+        <v>490.6</v>
       </c>
       <c r="E49" t="n">
-        <v>12.18</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>309.7</v>
+        <v>490.6</v>
       </c>
       <c r="D50" t="n">
-        <v>380.32</v>
+        <v>566.5599999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>8.228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>612.88</v>
+        <v>403</v>
       </c>
       <c r="D51" t="n">
-        <v>681.92</v>
+        <v>466.1</v>
       </c>
       <c r="E51" t="n">
-        <v>22.136</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>351.54</v>
+        <v>339.3</v>
       </c>
       <c r="D52" t="n">
-        <v>402.26</v>
+        <v>397.08</v>
       </c>
       <c r="E52" t="n">
-        <v>4.704</v>
+        <v>5.992</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>380.32</v>
+        <v>669.75</v>
       </c>
       <c r="D53" t="n">
-        <v>456.42</v>
+        <v>705.1900000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>4.208</v>
+        <v>21.472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>559.41</v>
+        <v>648.77</v>
       </c>
       <c r="D54" t="n">
-        <v>648.61</v>
+        <v>714.33</v>
       </c>
       <c r="E54" t="n">
-        <v>22.728</v>
+        <v>18.644</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>402.26</v>
+        <v>397.08</v>
       </c>
       <c r="D55" t="n">
-        <v>474.55</v>
+        <v>456.18</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>2.192</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>474.55</v>
+        <v>456.18</v>
       </c>
       <c r="D56" t="n">
-        <v>534.95</v>
+        <v>523.7</v>
       </c>
       <c r="E56" t="n">
-        <v>24.66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>534.95</v>
+        <v>523.7</v>
       </c>
       <c r="D57" t="n">
-        <v>570.99</v>
+        <v>576.58</v>
       </c>
       <c r="E57" t="n">
-        <v>22.196</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>648.61</v>
+        <v>576.58</v>
       </c>
       <c r="D58" t="n">
-        <v>729.85</v>
+        <v>647.42</v>
       </c>
       <c r="E58" t="n">
-        <v>18.724</v>
+        <v>23.448</v>
       </c>
     </row>
     <row r="59">
@@ -1549,245 +1549,245 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>570.99</v>
+        <v>466.1</v>
       </c>
       <c r="D59" t="n">
-        <v>641.49</v>
+        <v>551.52</v>
       </c>
       <c r="E59" t="n">
-        <v>18.276</v>
+        <v>1.208</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>681.92</v>
+        <v>551.52</v>
       </c>
       <c r="D60" t="n">
-        <v>735.12</v>
+        <v>645.7</v>
       </c>
       <c r="E60" t="n">
-        <v>19.416</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>441.52</v>
+        <v>647.42</v>
       </c>
       <c r="D61" t="n">
-        <v>515.86</v>
+        <v>717.04</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>20.616</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>515.86</v>
+        <v>632.37</v>
       </c>
       <c r="D62" t="n">
-        <v>561.86</v>
+        <v>692.39</v>
       </c>
       <c r="E62" t="n">
-        <v>26.1</v>
+        <v>23.008</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>735.12</v>
+        <v>645.7</v>
       </c>
       <c r="D63" t="n">
-        <v>789.64</v>
+        <v>699.12</v>
       </c>
       <c r="E63" t="n">
-        <v>16.584</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>456.42</v>
+        <v>714.33</v>
       </c>
       <c r="D64" t="n">
-        <v>539.5</v>
+        <v>773.61</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>15.836</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>539.5</v>
+        <v>566.5599999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>616.5</v>
+        <v>618.48</v>
       </c>
       <c r="E65" t="n">
-        <v>24.48</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>616.5</v>
+        <v>705.1900000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>671.0599999999999</v>
+        <v>799.39</v>
       </c>
       <c r="E66" t="n">
-        <v>21.624</v>
+        <v>16.132</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>641.49</v>
+        <v>618.48</v>
       </c>
       <c r="D67" t="n">
-        <v>717.39</v>
+        <v>705.98</v>
       </c>
       <c r="E67" t="n">
-        <v>13.296</v>
+        <v>23.368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>726.08</v>
+        <v>717.04</v>
       </c>
       <c r="D68" t="n">
-        <v>781.42</v>
+        <v>771.7</v>
       </c>
       <c r="E68" t="n">
-        <v>19.676</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>561.86</v>
+        <v>699.12</v>
       </c>
       <c r="D69" t="n">
-        <v>638.46</v>
+        <v>750.62</v>
       </c>
       <c r="E69" t="n">
-        <v>22.02</v>
+        <v>22.828</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>671.0599999999999</v>
+        <v>705.98</v>
       </c>
       <c r="D70" t="n">
-        <v>734.2</v>
+        <v>760.38</v>
       </c>
       <c r="E70" t="n">
-        <v>18.92</v>
+        <v>20.528</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>729.85</v>
+        <v>692.39</v>
       </c>
       <c r="D71" t="n">
-        <v>799.89</v>
+        <v>768.63</v>
       </c>
       <c r="E71" t="n">
-        <v>14.86</v>
+        <v>19.984</v>
       </c>
     </row>
   </sheetData>
